--- a/Test_Case.xlsx
+++ b/Test_Case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODING\QA\python tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B87F7C-3BB2-44D7-8610-23254CA55552}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D3B2D2-B152-4C46-AA5E-0C301EB47158}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{60A51568-C47A-431D-BBA7-49AD69DF39DF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Tugas 17</t>
+  </si>
+  <si>
+    <t>username : performance_glitch_user  password : secret_sauce</t>
   </si>
 </sst>
 </file>
@@ -327,14 +330,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -652,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A8D185-64F1-4D22-A24D-B11E77E76D21}">
   <dimension ref="A4:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,21 +665,21 @@
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="19.140625" customWidth="1"/>
     <col min="4" max="4" width="29.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" customWidth="1"/>
     <col min="6" max="6" width="24.140625" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="G4" s="17" t="s">
+      <c r="B4" s="19"/>
+      <c r="G4" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="17"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="6" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
@@ -733,7 +736,7 @@
       <c r="F8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="17" t="s">
         <v>21</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -757,7 +760,7 @@
       <c r="F9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="18" t="s">
         <v>18</v>
       </c>
       <c r="H9" s="2" t="s">
@@ -781,7 +784,7 @@
       <c r="F10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="17" t="s">
         <v>21</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -800,12 +803,12 @@
         <v>28</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="17" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="2" t="s">
@@ -843,7 +846,7 @@
       <c r="F13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="17" t="s">
         <v>26</v>
       </c>
       <c r="H13" s="2" t="s">
